--- a/ExecutionTestData/8/TestData.xlsx
+++ b/ExecutionTestData/8/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shafqat.ali\Desktop\jaya credential batches\8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shafqat.ali\Desktop\jaya credential batches\rerun batches\13\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="153">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -458,15 +458,9 @@
     <t>OPPO_A53_Android_10.0.0_bd07c</t>
   </si>
   <si>
-    <t>11.0.0</t>
-  </si>
-  <si>
     <t>EndPoint</t>
   </si>
   <si>
-    <t>https://device.pcloudy.com</t>
-  </si>
-  <si>
     <t>iWEALTH</t>
   </si>
   <si>
@@ -489,6 +483,21 @@
   </si>
   <si>
     <t>9.0.0</t>
+  </si>
+  <si>
+    <t>https://us.pcloudy.com</t>
+  </si>
+  <si>
+    <t>APPLE_iPhone8_iOS_14.0.1_aa631</t>
+  </si>
+  <si>
+    <t>APPLE_iPhone12ProMax_iOS_14.6.0_de280</t>
+  </si>
+  <si>
+    <t>14.6.0</t>
+  </si>
+  <si>
+    <t>14.0.1</t>
   </si>
 </sst>
 </file>
@@ -988,7 +997,7 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1023,7 +1032,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1073,7 +1082,7 @@
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -1123,7 +1132,7 @@
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>15</v>
@@ -1173,7 +1182,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1186,10 +1195,10 @@
         <v>19</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>99</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1197,10 +1206,10 @@
         <v>20</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1208,10 +1217,10 @@
         <v>22</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1219,10 +1228,10 @@
         <v>23</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
@@ -1233,10 +1242,10 @@
         <v>24</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
@@ -1247,10 +1256,10 @@
         <v>27</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1258,10 +1267,10 @@
         <v>28</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1269,10 +1278,10 @@
         <v>29</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1294,7 +1303,7 @@
         <v>32</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
